--- a/biology/Zoologie/Callosobruchus/Callosobruchus.xlsx
+++ b/biology/Zoologie/Callosobruchus/Callosobruchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bruches
 Callosobruchus est un genre de Coléoptères de la famille des Chrysomelidae et de la sous-famille des Bruchinae. Selon les sources, il comprend entre quatre et douze espèces appelées Bruches en français. Ce sont des ravageurs exclusivement de graines de légumineuses.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Callosobruchus a été initialement créé en 1902, en tant que sous-genre du genre Bruchus, par l'entomologiste français Maurice Pic (1866-1957)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Callosobruchus a été initialement créé en 1902, en tant que sous-genre du genre Bruchus, par l'entomologiste français Maurice Pic (1866-1957),.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (14 novembre 2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (14 novembre 2020) :
 Callosobruchus analis (Fabricius, 1781)
 Callosobruchus antennifer Singal &amp; Pajni, 1990
 Callosobruchus chinensis (Linnaeus, 1758)
@@ -558,12 +574,12 @@
 Callosobruchus stigmatica Suffrian, 1844
 Callosobruchus subinnotatus
 Callosobruchus theobromae (Linnaeus, 1767)
-Selon EOL                          (14 novembre 2020)[3] :
+Selon EOL                          (14 novembre 2020) :
 Callosobruchus chinensis (Linnaeus 1758) (Southern Cowpea Weevil)
 Callosobruchus maculatus (Fabricius 1775) (Cowpea Weevil)
 Callosobruchus phaseoli (Gyllenhal 1833)
 Callosobruchus pulcher Pic 1922
-Selon la base de données mondiale de l'OEPP[4] :
+Selon la base de données mondiale de l'OEPP :
 Callosobruchus ademptus
 Callosobruchus analis
 Callosobruchus chinensis
@@ -602,7 +618,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>M. Pic, « Coléoptères présumés nouveaux de la Rhodésia », Revue d'entomologie, Caen, Société française d'entomologie, vol. 21,‎ 1902, p. 4-7 (OCLC 1624340, lire en ligne)</t>
         </is>
